--- a/biology/Zoologie/Amblyopone/Amblyopone.xlsx
+++ b/biology/Zoologie/Amblyopone/Amblyopone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amblyopone est un genre de fourmis dont les espèces sont présentes dans toutes les régions du monde, mais surtout en Australie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fourmis du genre Amblyopone sont des prédatrices spécialisées dans certains arthropodes, en particulier les centipèdes vivants dans le sol ou le bois pourri. Malgré cette spécialisation, les fourmis de ce genre possèdent également certains traits comportementaux et morphologiques considérés comme « primitifs » par rapport à l'ensemble des fourmis[1]. Les colonies des espèces d'Amblyopone sont généralement de petites tailles et installées dans l'humus ou du bois mort[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fourmis du genre Amblyopone sont des prédatrices spécialisées dans certains arthropodes, en particulier les centipèdes vivants dans le sol ou le bois pourri. Malgré cette spécialisation, les fourmis de ce genre possèdent également certains traits comportementaux et morphologiques considérés comme « primitifs » par rapport à l'ensemble des fourmis. Les colonies des espèces d'Amblyopone sont généralement de petites tailles et installées dans l'humus ou du bois mort. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon GBIF       (20 mai 2024)[3] :
+Selon GBIF       (20 mai 2024) :
 Amblyopone aberrans Wheeler, 1927
 Amblyopone agostii Lacau &amp; Delabie, 2002
 Amblyopone amblyops (Karavaiev, 1935)
@@ -641,10 +657,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Amblyopone Erichson, 1842[3]. Le genre a été créé par l'entomologiste allemand Wilhelm Ferdinand Erichson en 1842.
-Amblyopone a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Amblyopone Erichson, 1842. Le genre a été créé par l'entomologiste allemand Wilhelm Ferdinand Erichson en 1842.
+Amblyopone a pour synonymes :
 Amblyopopona Schulz, 1906
 Amblyopopone Dalla Torre, 1893
 Neoamblyopone Wheeler, 1927
